--- a/TODO.xlsx
+++ b/TODO.xlsx
@@ -19,26 +19,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Complete Comment form on Blog</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Ajax Comments</t>
+  </si>
+  <si>
+    <t>Add Image uploader to Text Editor</t>
+  </si>
+  <si>
+    <t>Category View</t>
+  </si>
+  <si>
+    <t>Fix Homepage</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Django ModelForm</t>
+  </si>
+  <si>
+    <t>Complete Add Comment form on Blog</t>
+  </si>
+  <si>
+    <t>CSS</t>
+  </si>
+  <si>
+    <t>Extension</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -68,9 +97,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,43 +406,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.23046875" style="1"/>
-    <col min="2" max="2" width="28.84375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>3.1</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState ref="A2:C6">
+    <sortCondition ref="A2:A6"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>